--- a/Stocks/EDELWEISS.xlsx
+++ b/Stocks/EDELWEISS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>165.6</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>208.04093470715679</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>200.11268317407138</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>90.44334285321186</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>11.050000000000011</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>12.800000000000011</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.86328125000000011</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>UP</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>199.16224145072621</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>4.1714703812258733</v>
       </c>
       <c r="Y67">
         <v>2.9395172984643745</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>UP</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>UP</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>205.65</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>209.10000000000002</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>210.60000000000002</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>212.10000000000002</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>237.05</v>
+      </c>
+      <c r="D83">
+        <v>240.3</v>
+      </c>
+      <c r="E83">
+        <v>233.1</v>
+      </c>
+      <c r="F83">
+        <v>237</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>236.79999999999998</v>
+      </c>
+      <c r="H83">
+        <v>238.80067353721171</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>246.42848247498432</v>
+      </c>
+      <c r="K83">
+        <v>235.91469641679871</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>39.445800961755154</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>7.2000000000000171</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.54166666666666619</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>238.81009068859703</v>
+      </c>
+      <c r="W83">
+        <v>228.88785797250702</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>9.9222327160900079</v>
+      </c>
+      <c r="Y83">
+        <v>11.44367276603683</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>238</v>
+      </c>
+      <c r="D84">
+        <v>243.5</v>
+      </c>
+      <c r="E84">
+        <v>235</v>
+      </c>
+      <c r="F84">
+        <v>240.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>239.56666666666669</v>
+      </c>
+      <c r="H84">
+        <v>239.18367010193919</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>245.77770859165446</v>
+      </c>
+      <c r="K84">
+        <v>235.71143054639899</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.882899866820068</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.61176470588235166</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>239.02392289035134</v>
+      </c>
+      <c r="W84">
+        <v>229.72579441898799</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>9.2981284713633556</v>
+      </c>
+      <c r="Y84">
+        <v>11.014563907102135</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>243</v>
+      </c>
+      <c r="D85">
+        <v>247</v>
+      </c>
+      <c r="E85">
+        <v>240.15</v>
+      </c>
+      <c r="F85">
+        <v>242</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>243.04999999999998</v>
+      </c>
+      <c r="H85">
+        <v>241.1168350509696</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>246.04932890462013</v>
+      </c>
+      <c r="K85">
+        <v>236.69777931386588</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>55.300097172596217</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.8499999999999943</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.27007299270072932</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>239.48178090722035</v>
+      </c>
+      <c r="W85">
+        <v>230.63499483239627</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>8.846786074824081</v>
+      </c>
+      <c r="Y85">
+        <v>10.581008340646523</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>242.8</v>
+      </c>
+      <c r="D86">
+        <v>249.9</v>
+      </c>
+      <c r="E86">
+        <v>238.5</v>
+      </c>
+      <c r="F86">
+        <v>248.7</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>245.69999999999996</v>
+      </c>
+      <c r="H86">
+        <v>243.40841752548477</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>246.90503359248231</v>
+      </c>
+      <c r="K86">
+        <v>237.09827279967345</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>70.258011278875159</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>10.199999999999989</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.89473684210526172</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>240.89996845995569</v>
+      </c>
+      <c r="W86">
+        <v>231.97314336332988</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>8.9268250966258051</v>
+      </c>
+      <c r="Y86">
+        <v>10.250171691842379</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>249.5</v>
+      </c>
+      <c r="D87">
+        <v>250.65</v>
+      </c>
+      <c r="E87">
+        <v>244.3</v>
+      </c>
+      <c r="F87">
+        <v>245.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>246.81666666666669</v>
+      </c>
+      <c r="H87">
+        <v>245.11254209607574</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>247.73724834970847</v>
+      </c>
+      <c r="K87">
+        <v>238.69865662196824</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>58.559131644393624</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.3499999999999943</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.18897637795275429</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>241.60766561996252</v>
+      </c>
+      <c r="W87">
+        <v>232.97513274382396</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>8.6325328761385549</v>
+      </c>
+      <c r="Y87">
+        <v>9.9266439287016137</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>246</v>
+      </c>
+      <c r="D88">
+        <v>246</v>
+      </c>
+      <c r="E88">
+        <v>235</v>
+      </c>
+      <c r="F88">
+        <v>238.85</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>239.95000000000002</v>
+      </c>
+      <c r="H88">
+        <v>242.53127104803787</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>247.35119316088435</v>
+      </c>
+      <c r="K88">
+        <v>237.87673292819753</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>40.87772484358937</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.8499999999999943</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.34999999999999948</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>241.18340937073751</v>
+      </c>
+      <c r="W88">
+        <v>233.41030809613329</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>7.7731012746042154</v>
+      </c>
+      <c r="Y88">
+        <v>9.4959353978821337</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>236.1</v>
+      </c>
+      <c r="D89">
+        <v>244.5</v>
+      </c>
+      <c r="E89">
+        <v>236.1</v>
+      </c>
+      <c r="F89">
+        <v>244</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>241.53333333333333</v>
+      </c>
+      <c r="H89">
+        <v>242.03230219068558</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>246.71759468068782</v>
+      </c>
+      <c r="K89">
+        <v>237.48190338859808</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>54.250085273791171</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>7.9000000000000057</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.94047619047619047</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>241.61673100600865</v>
+      </c>
+      <c r="W89">
+        <v>234.19472971864192</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>7.4220012873667258</v>
+      </c>
+      <c r="Y89">
+        <v>9.0811485757790518</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>244.1</v>
+      </c>
+      <c r="D90">
+        <v>258.2</v>
+      </c>
+      <c r="E90">
+        <v>243.9</v>
+      </c>
+      <c r="F90">
+        <v>255</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>252.36666666666667</v>
+      </c>
+      <c r="H90">
+        <v>247.19948442867613</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>249.26924030720164</v>
+      </c>
+      <c r="K90">
+        <v>238.90814708002074</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>71.475518747847701</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>14.299999999999983</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.77622377622377681</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>243.6756954666227</v>
+      </c>
+      <c r="W90">
+        <v>235.73586085059438</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>7.9398346160283211</v>
+      </c>
+      <c r="Y90">
+        <v>8.8528857838289063</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>259</v>
+      </c>
+      <c r="D91">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="E91">
+        <v>253.15</v>
+      </c>
+      <c r="F91">
+        <v>255.75</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>257.59999999999997</v>
+      </c>
+      <c r="H91">
+        <v>252.39974221433806</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>252.52052023893461</v>
+      </c>
+      <c r="K91">
+        <v>242.07300328446058</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.362386772050087</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>10.749999999999972</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.24186046511627918</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>245.53328077944997</v>
+      </c>
+      <c r="W91">
+        <v>237.21838967647628</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>8.3148911029736894</v>
+      </c>
+      <c r="Y91">
+        <v>8.7452868476578622</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>257.7</v>
+      </c>
+      <c r="D92">
+        <v>261.25</v>
+      </c>
+      <c r="E92">
+        <v>251.65</v>
+      </c>
+      <c r="F92">
+        <v>254</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>255.63333333333333</v>
+      </c>
+      <c r="H92">
+        <v>254.01653777383569</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>254.46040463028248</v>
+      </c>
+      <c r="K92">
+        <v>244.20122477680269</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>66.345910623071518</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.24479166666666621</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>246.83585296722688</v>
+      </c>
+      <c r="W92">
+        <v>238.46147192266321</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>8.3743810445636768</v>
+      </c>
+      <c r="Y92">
+        <v>8.6711056870390255</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>258</v>
+      </c>
+      <c r="D93">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E93">
+        <v>254.3</v>
+      </c>
+      <c r="F93">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>256.93333333333334</v>
+      </c>
+      <c r="H93">
+        <v>255.47493555358452</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>255.66920360133082</v>
+      </c>
+      <c r="K93">
+        <v>246.44539704862433</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>70.847361327368915</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>5.5999999999999659</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.41071428571429025</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>248.33802943380738</v>
+      </c>
+      <c r="W93">
+        <v>239.80506659505852</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>8.5329628387488583</v>
+      </c>
+      <c r="Y93">
+        <v>8.6434771173809928</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>258</v>
+      </c>
+      <c r="D94">
+        <v>264</v>
+      </c>
+      <c r="E94">
+        <v>255</v>
+      </c>
+      <c r="F94">
+        <v>256.8</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>258.59999999999997</v>
+      </c>
+      <c r="H94">
+        <v>257.03746777679225</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>257.52049168992397</v>
+      </c>
+      <c r="K94">
+        <v>248.34641992670782</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>71.217538175036424</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000126</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>249.63987105937548</v>
+      </c>
+      <c r="W94">
+        <v>241.06395055098011</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>8.5759205083953702</v>
+      </c>
+      <c r="Y94">
+        <v>8.6299657955838676</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>256.95</v>
+      </c>
+      <c r="D95">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E95">
+        <v>252.6</v>
+      </c>
+      <c r="F95">
+        <v>253.65</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>255.38333333333333</v>
+      </c>
+      <c r="H95">
+        <v>256.21040055506279</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>258.04927131438529</v>
+      </c>
+      <c r="K95">
+        <v>249.29165994299498</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>56.974504243108683</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>7.2999999999999829</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.14383561643835807</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>250.25681397331772</v>
+      </c>
+      <c r="W95">
+        <v>241.99625051016676</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.2605634631509588</v>
+      </c>
+      <c r="Y95">
+        <v>8.5560853290972858</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>255.6</v>
+      </c>
+      <c r="D96">
+        <v>261</v>
+      </c>
+      <c r="E96">
+        <v>255</v>
+      </c>
+      <c r="F96">
+        <v>259.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>258.41666666666669</v>
+      </c>
+      <c r="H96">
+        <v>257.31353361086474</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>258.70498880007744</v>
+      </c>
+      <c r="K96">
+        <v>250.56017995566276</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>70.212813507823142</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>251.64038105434577</v>
+      </c>
+      <c r="W96">
+        <v>243.2743060279322</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>8.3660750264135686</v>
+      </c>
+      <c r="Y96">
+        <v>8.5180832685605417</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>259.95</v>
+      </c>
+      <c r="D97">
+        <v>286.3</v>
+      </c>
+      <c r="E97">
+        <v>259.05</v>
+      </c>
+      <c r="F97">
+        <v>286.3</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>277.2166666666667</v>
+      </c>
+      <c r="H97">
+        <v>267.26510013876572</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>264.83721351117134</v>
+      </c>
+      <c r="K97">
+        <v>252.44680663218216</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>89.576834245470891</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>27.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>27.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>256.97263012290796</v>
+      </c>
+      <c r="W97">
+        <v>246.4613944703076</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>10.511235652600362</v>
+      </c>
+      <c r="Y97">
+        <v>8.9167137453685061</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>262.15000000000003</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>269.45</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>272.7</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>275.90000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>288.60000000000002</v>
+      </c>
+      <c r="D98">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="E98">
+        <v>279</v>
+      </c>
+      <c r="F98">
+        <v>281</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>285.63333333333333</v>
+      </c>
+      <c r="H98">
+        <v>276.44921673604949</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>271.9622771753555</v>
+      </c>
+      <c r="K98">
+        <v>258.34751626947502</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>77.27368503247753</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.899999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.11173184357541914</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>260.66914856553751</v>
+      </c>
+      <c r="W98">
+        <v>249.01980969472925</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>11.649338870808265</v>
+      </c>
+      <c r="Y98">
+        <v>9.4632387704564582</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>282.3</v>
+      </c>
+      <c r="D99">
+        <v>282.8</v>
+      </c>
+      <c r="E99">
+        <v>275.5</v>
+      </c>
+      <c r="F99">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>278.3</v>
+      </c>
+      <c r="H99">
+        <v>277.37460836802472</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>274.37066002527649</v>
+      </c>
+      <c r="K99">
+        <v>262.15917932070278</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>67.633812906455987</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.15068493150685219</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>263.12004878622406</v>
+      </c>
+      <c r="W99">
+        <v>251.06278675437895</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>12.057262031845113</v>
+      </c>
+      <c r="Y99">
+        <v>9.9820434227341899</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>277.8</v>
+      </c>
+      <c r="D100">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="E100">
+        <v>270.25</v>
+      </c>
+      <c r="F100">
+        <v>271.8</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>273.3</v>
+      </c>
+      <c r="H100">
+        <v>275.3373041840124</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>275.14384668632619</v>
+      </c>
+      <c r="K100">
+        <v>263.95713947165774</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>57.801081269496692</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.6000000000000227</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.20394736842105352</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>264.45542589603576</v>
+      </c>
+      <c r="W100">
+        <v>252.59887662442495</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>11.856549271610817</v>
+      </c>
+      <c r="Y100">
+        <v>10.356944592509516</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>272</v>
+      </c>
+      <c r="D101">
+        <v>282.7</v>
+      </c>
+      <c r="E101">
+        <v>245</v>
+      </c>
+      <c r="F101">
+        <v>276.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>268.06666666666666</v>
+      </c>
+      <c r="H101">
+        <v>271.70198542533956</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>276.8229918671426</v>
+      </c>
+      <c r="K101">
+        <v>259.74444181128933</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>64.175705565140859</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>31.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>37.699999999999989</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.83554376657824958</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>266.30843729664565</v>
+      </c>
+      <c r="W101">
+        <v>254.36933020780089</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>11.939107088844764</v>
+      </c>
+      <c r="Y101">
+        <v>10.673377091776565</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>275</v>
+      </c>
+      <c r="D102">
+        <v>275</v>
+      </c>
+      <c r="E102">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="F102">
+        <v>262.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>265.7166666666667</v>
+      </c>
+      <c r="H102">
+        <v>268.70932604600313</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>276.41788256333314</v>
+      </c>
+      <c r="K102">
+        <v>259.82345474211394</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>40.603619365990504</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13087248322147596</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>265.65329309716168</v>
+      </c>
+      <c r="W102">
+        <v>254.93826871092674</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>10.715024386234944</v>
+      </c>
+      <c r="Y102">
+        <v>10.681706550668242</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>262.05</v>
+      </c>
+      <c r="D103">
+        <v>262.7</v>
+      </c>
+      <c r="E103">
+        <v>237.55</v>
+      </c>
+      <c r="F103">
+        <v>255.1</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>251.78333333333333</v>
+      </c>
+      <c r="H103">
+        <v>260.24632968966824</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>273.36946421592575</v>
+      </c>
+      <c r="K103">
+        <v>254.8737981327553</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>33.259079892417638</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>17.549999999999983</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>25.149999999999977</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.69781312127236572</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>264.02970954375218</v>
+      </c>
+      <c r="W103">
+        <v>254.95024880641364</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>9.0794607373385361</v>
+      </c>
+      <c r="Y103">
+        <v>10.361257388002301</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>256.3</v>
+      </c>
+      <c r="D104">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="E104">
+        <v>252.15</v>
+      </c>
+      <c r="F104">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>269.55</v>
+      </c>
+      <c r="H104">
+        <v>264.89816484483413</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>275.37624994572002</v>
+      </c>
+      <c r="K104">
+        <v>254.26850965880968</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>58.754247166539287</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>21.950000000000017</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>30.249999999999972</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.72561983471074509</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>265.57898499855952</v>
+      </c>
+      <c r="W104">
+        <v>256.36874889482743</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>9.2102361037320861</v>
+      </c>
+      <c r="Y104">
+        <v>10.131053131148258</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
